--- a/documentation/Journal/3_1_Gabriel_Journal.xlsx
+++ b/documentation/Journal/3_1_Gabriel_Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67C070B-CEBD-DF45-A44A-F5CAE83289CA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F1032F-7FF7-2C4D-8BA8-0A7490658BD1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23140" yWindow="840" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Gabriel" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>Bon début de projet tout c'est bien passé car c'était des trucs généraux que j'ai déjà fait pleins de fois donc aucune difficultées</t>
+  </si>
+  <si>
+    <t>Mise en place de l'API pour frontend</t>
+  </si>
+  <si>
+    <t>Mise en place de l'endpoint</t>
+  </si>
+  <si>
+    <t>Création  d'un script d'installation auto pour rpi</t>
+  </si>
+  <si>
+    <t>Création d'une image docker pour installer auto</t>
+  </si>
+  <si>
+    <t>Du coté technique tout c'est très bien passé mais j'ai eu de la peine avec la partie scrum qui était pas du tout bien aujourd'hui</t>
   </si>
 </sst>
 </file>
@@ -460,100 +475,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -836,6 +851,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1210,10 +1229,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1226,85 +1245,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
+      <c r="A6" s="20">
         <v>46000</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1317,45 +1336,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="29">
+        <v>46006</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1364,47 +1401,49 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1417,43 +1456,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1466,43 +1505,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1515,43 +1554,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1564,43 +1603,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1613,43 +1652,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1662,43 +1701,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1711,43 +1750,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1760,43 +1799,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -1809,10 +1848,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
@@ -1822,19 +1861,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1846,77 +1956,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2031,15 +2070,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2048,6 +2078,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2264,26 +2303,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/Journal/3_1_Gabriel_Journal.xlsx
+++ b/documentation/Journal/3_1_Gabriel_Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F1032F-7FF7-2C4D-8BA8-0A7490658BD1}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8DECC7-F493-C64B-8C0E-4D320DF28FA1}"/>
   <bookViews>
-    <workbookView xWindow="-23140" yWindow="840" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-11380" windowWidth="68800" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Gabriel" sheetId="9" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>Création d'une image docker pour installer auto</t>
   </si>
   <si>
-    <t>Du coté technique tout c'est très bien passé mais j'ai eu de la peine avec la partie scrum qui était pas du tout bien aujourd'hui</t>
+    <t>Du coté technique tout c'est très bien passé mais j'ai eu de la peine avec la partie scrum qui était pas du tout bien aujourd'hui. Je vais regarder ce soir a la maison pour voir comment améliorer la partie dont je suis responsable en tant que product owner. Je pense que si on arrive avec des userstories bien découpé afin d'avoir de petites taches dans le product backlog ça devrait être pas mal</t>
   </si>
 </sst>
 </file>
@@ -475,6 +475,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -507,68 +563,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1229,10 +1229,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19:D19"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1245,85 +1245,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>46000</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1336,63 +1336,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46006</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1404,46 +1404,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1456,43 +1456,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1505,43 +1505,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1554,43 +1554,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1603,43 +1603,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1652,43 +1652,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1701,43 +1701,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1750,43 +1750,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1799,43 +1799,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -1848,10 +1848,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
@@ -1865,86 +1865,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1956,6 +1885,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2070,6 +2070,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2078,15 +2087,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2303,26 +2303,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/Journal/3_1_Gabriel_Journal.xlsx
+++ b/documentation/Journal/3_1_Gabriel_Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8DECC7-F493-C64B-8C0E-4D320DF28FA1}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8C1DBE-08EE-1A4C-A8D5-8100F7C13814}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-11380" windowWidth="68800" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Gabriel" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Du coté technique tout c'est très bien passé mais j'ai eu de la peine avec la partie scrum qui était pas du tout bien aujourd'hui. Je vais regarder ce soir a la maison pour voir comment améliorer la partie dont je suis responsable en tant que product owner. Je pense que si on arrive avec des userstories bien découpé afin d'avoir de petites taches dans le product backlog ça devrait être pas mal</t>
+  </si>
+  <si>
+    <t>Rdv ortho</t>
+  </si>
+  <si>
+    <t>Fin de la création du script d'installation auto pour les rpi</t>
+  </si>
+  <si>
+    <t>Deploiement du front end et liaisons du back avec le front</t>
+  </si>
+  <si>
+    <t>J'ai eu pas mal de problèmes au niveau du deploiement du front end avec des problèmes de sites inaccessibles mais dans l'ensemble au niveau de scrum les choses rentrent gentiment dans l'ordre et le module devrait bien se finir.</t>
   </si>
 </sst>
 </file>
@@ -475,100 +487,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1230,9 +1242,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1245,85 +1257,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>46000</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1336,63 +1348,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46006</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1405,45 +1417,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="29">
+        <v>46007</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1452,47 +1478,49 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1505,43 +1533,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1554,43 +1582,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1603,43 +1631,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1652,43 +1680,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1701,43 +1729,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1750,43 +1778,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1799,43 +1827,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="16"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -1848,10 +1876,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="16"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
@@ -1861,19 +1889,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1885,77 +1984,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2070,26 +2098,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2302,32 +2310,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2344,4 +2347,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>